--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="951">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1073,7 +1073,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1163,7 +1163,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1226,6 +1226,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
     <t>Organization.identifier:idNatSt.system</t>
   </si>
   <si>
@@ -1242,6 +1245,10 @@
   </si>
   <si>
     <t>Organization.identifier:idNatSt.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization.identifier:siren</t>
@@ -9529,7 +9536,7 @@
         <v>337</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -9582,7 +9589,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>341</v>
@@ -9630,7 +9637,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>346</v>
@@ -9704,7 +9711,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>351</v>
@@ -9733,7 +9740,7 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>353</v>
@@ -9824,7 +9831,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>360</v>
@@ -9942,7 +9949,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>367</v>
@@ -9968,7 +9975,7 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>369</v>
@@ -10062,13 +10069,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>79</v>
@@ -10093,7 +10100,7 @@
         <v>308</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>310</v>
@@ -10164,10 +10171,10 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>315</v>
@@ -10184,7 +10191,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>319</v>
@@ -10302,7 +10309,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>320</v>
@@ -10422,7 +10429,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>321</v>
@@ -10544,7 +10551,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>331</v>
@@ -10592,7 +10599,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -10613,7 +10620,7 @@
         <v>337</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -10666,7 +10673,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>341</v>
@@ -10714,7 +10721,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>346</v>
@@ -10788,7 +10795,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>351</v>
@@ -10908,7 +10915,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>360</v>
@@ -11026,7 +11033,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>367</v>
@@ -11052,7 +11059,7 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>369</v>
@@ -11146,13 +11153,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>79</v>
@@ -11177,7 +11184,7 @@
         <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>310</v>
@@ -11251,7 +11258,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>315</v>
@@ -11268,7 +11275,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>319</v>
@@ -11386,7 +11393,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>320</v>
@@ -11506,7 +11513,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>321</v>
@@ -11628,7 +11635,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>331</v>
@@ -11676,7 +11683,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -11697,7 +11704,7 @@
         <v>337</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -11750,7 +11757,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>341</v>
@@ -11798,7 +11805,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>346</v>
@@ -11872,7 +11879,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>351</v>
@@ -11992,7 +11999,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>360</v>
@@ -12110,7 +12117,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>367</v>
@@ -12136,7 +12143,7 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>369</v>
@@ -12230,13 +12237,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12268,7 @@
         <v>308</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>310</v>
@@ -12332,10 +12339,10 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>315</v>
@@ -12352,7 +12359,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>319</v>
@@ -12470,7 +12477,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>320</v>
@@ -12590,7 +12597,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>321</v>
@@ -12712,7 +12719,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>331</v>
@@ -12781,7 +12788,7 @@
         <v>337</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -12834,10 +12841,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12952,10 +12959,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13072,10 +13079,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13101,16 +13108,16 @@
         <v>158</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -13159,7 +13166,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -13180,10 +13187,10 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -13194,10 +13201,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13312,10 +13319,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13432,10 +13439,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13461,16 +13468,16 @@
         <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -13480,7 +13487,7 @@
         <v>79</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13526,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13540,10 +13547,10 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -13554,10 +13561,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13583,13 +13590,13 @@
         <v>105</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13639,7 +13646,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13660,10 +13667,10 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -13674,10 +13681,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13703,14 +13710,14 @@
         <v>180</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -13759,7 +13766,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13780,10 +13787,10 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -13794,10 +13801,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13823,14 +13830,14 @@
         <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -13879,7 +13886,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13900,10 +13907,10 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -13914,10 +13921,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13940,19 +13947,19 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -14001,7 +14008,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -14022,10 +14029,10 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -14036,10 +14043,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14065,16 +14072,16 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -14123,7 +14130,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -14144,10 +14151,10 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -14158,7 +14165,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>341</v>
@@ -14206,7 +14213,7 @@
         <v>79</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>346</v>
@@ -14280,7 +14287,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>351</v>
@@ -14400,7 +14407,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>360</v>
@@ -14518,7 +14525,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>367</v>
@@ -14544,7 +14551,7 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>369</v>
@@ -14638,13 +14645,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -14669,7 +14676,7 @@
         <v>308</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>310</v>
@@ -14740,10 +14747,10 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>315</v>
@@ -14760,7 +14767,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>319</v>
@@ -14878,7 +14885,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>320</v>
@@ -14998,7 +15005,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>321</v>
@@ -15120,7 +15127,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>331</v>
@@ -15168,7 +15175,7 @@
         <v>79</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>79</v>
@@ -15189,7 +15196,7 @@
         <v>337</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -15242,7 +15249,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>341</v>
@@ -15290,7 +15297,7 @@
         <v>79</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>346</v>
@@ -15364,7 +15371,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>351</v>
@@ -15484,7 +15491,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>360</v>
@@ -15602,7 +15609,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>367</v>
@@ -15628,7 +15635,7 @@
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>369</v>
@@ -15722,13 +15729,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -15753,7 +15760,7 @@
         <v>308</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>310</v>
@@ -15824,10 +15831,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>315</v>
@@ -15844,7 +15851,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>319</v>
@@ -15962,7 +15969,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>320</v>
@@ -16082,7 +16089,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>321</v>
@@ -16204,7 +16211,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>331</v>
@@ -16252,7 +16259,7 @@
         <v>79</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>79</v>
@@ -16273,7 +16280,7 @@
         <v>337</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
@@ -16326,7 +16333,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>341</v>
@@ -16374,7 +16381,7 @@
         <v>79</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>346</v>
@@ -16448,7 +16455,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>351</v>
@@ -16568,7 +16575,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>360</v>
@@ -16686,7 +16693,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>367</v>
@@ -16712,7 +16719,7 @@
         <v>92</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>369</v>
@@ -16806,13 +16813,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>79</v>
@@ -16837,7 +16844,7 @@
         <v>308</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>310</v>
@@ -16928,7 +16935,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>319</v>
@@ -17046,7 +17053,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>320</v>
@@ -17166,7 +17173,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>321</v>
@@ -17288,7 +17295,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>331</v>
@@ -17336,7 +17343,7 @@
         <v>79</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>79</v>
@@ -17410,7 +17417,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>341</v>
@@ -17458,7 +17465,7 @@
         <v>79</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>346</v>
@@ -17532,7 +17539,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>351</v>
@@ -17652,7 +17659,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>360</v>
@@ -17770,7 +17777,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>367</v>
@@ -17890,10 +17897,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17916,70 +17923,70 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q122" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF122" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q122" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17997,27 +18004,27 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18043,16 +18050,16 @@
         <v>332</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -18080,16 +18087,16 @@
         <v>170</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AC123" s="2"/>
       <c r="AD123" t="s" s="2">
@@ -18099,7 +18106,7 @@
         <v>118</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -18120,27 +18127,27 @@
         <v>79</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>79</v>
@@ -18165,16 +18172,16 @@
         <v>332</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -18203,7 +18210,7 @@
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
@@ -18221,7 +18228,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -18242,24 +18249,24 @@
         <v>79</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18374,10 +18381,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18492,13 +18499,13 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>79</v>
@@ -18520,13 +18527,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18612,10 +18619,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18730,10 +18737,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18848,10 +18855,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18891,7 +18898,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>79</v>
@@ -18968,10 +18975,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19000,7 +19007,7 @@
         <v>235</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19012,7 +19019,7 @@
         <v>79</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>79</v>
@@ -19031,7 +19038,7 @@
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>79</v>
@@ -19084,10 +19091,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19113,16 +19120,16 @@
         <v>158</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -19171,7 +19178,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -19192,10 +19199,10 @@
         <v>79</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>79</v>
@@ -19206,10 +19213,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19324,10 +19331,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19444,10 +19451,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19473,16 +19480,16 @@
         <v>138</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19531,7 +19538,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19552,10 +19559,10 @@
         <v>79</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
@@ -19566,10 +19573,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19595,13 +19602,13 @@
         <v>105</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19651,7 +19658,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19672,10 +19679,10 @@
         <v>79</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>79</v>
@@ -19686,10 +19693,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19715,14 +19722,14 @@
         <v>180</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>79</v>
@@ -19771,7 +19778,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19792,10 +19799,10 @@
         <v>79</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>79</v>
@@ -19806,10 +19813,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19835,14 +19842,14 @@
         <v>105</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19891,7 +19898,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19912,10 +19919,10 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
@@ -19926,10 +19933,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19952,19 +19959,19 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -20013,7 +20020,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -20034,10 +20041,10 @@
         <v>79</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>79</v>
@@ -20048,10 +20055,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20077,16 +20084,16 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -20135,7 +20142,7 @@
         <v>79</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -20156,10 +20163,10 @@
         <v>79</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -20170,13 +20177,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -20201,16 +20208,16 @@
         <v>332</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20239,7 +20246,7 @@
       </c>
       <c r="Y141" s="2"/>
       <c r="Z141" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>79</v>
@@ -20257,7 +20264,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20275,27 +20282,27 @@
         <v>79</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20410,10 +20417,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20528,13 +20535,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>79</v>
@@ -20556,13 +20563,13 @@
         <v>79</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20648,10 +20655,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20766,10 +20773,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20884,10 +20891,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20927,7 +20934,7 @@
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>79</v>
@@ -21004,10 +21011,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21036,7 +21043,7 @@
         <v>235</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -21048,7 +21055,7 @@
         <v>79</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>79</v>
@@ -21067,7 +21074,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>79</v>
@@ -21120,10 +21127,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21149,16 +21156,16 @@
         <v>158</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -21207,7 +21214,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21228,10 +21235,10 @@
         <v>79</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
@@ -21242,10 +21249,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21360,10 +21367,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21480,10 +21487,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21509,16 +21516,16 @@
         <v>138</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>79</v>
@@ -21567,7 +21574,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21588,10 +21595,10 @@
         <v>79</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>79</v>
@@ -21602,10 +21609,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21631,13 +21638,13 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21687,7 +21694,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21708,10 +21715,10 @@
         <v>79</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>79</v>
@@ -21722,10 +21729,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21751,14 +21758,14 @@
         <v>180</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>79</v>
@@ -21807,7 +21814,7 @@
         <v>79</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21828,10 +21835,10 @@
         <v>79</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>79</v>
@@ -21842,10 +21849,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21871,14 +21878,14 @@
         <v>105</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>79</v>
@@ -21927,7 +21934,7 @@
         <v>79</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21948,10 +21955,10 @@
         <v>79</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>79</v>
@@ -21962,10 +21969,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21988,19 +21995,19 @@
         <v>92</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>79</v>
@@ -22049,7 +22056,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -22070,10 +22077,10 @@
         <v>79</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>79</v>
@@ -22084,10 +22091,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22113,16 +22120,16 @@
         <v>105</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>79</v>
@@ -22171,7 +22178,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22192,10 +22199,10 @@
         <v>79</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>79</v>
@@ -22206,13 +22213,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>79</v>
@@ -22237,16 +22244,16 @@
         <v>332</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>79</v>
@@ -22275,7 +22282,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>79</v>
@@ -22293,7 +22300,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22311,27 +22318,27 @@
         <v>79</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22446,10 +22453,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22566,10 +22573,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22595,16 +22602,16 @@
         <v>158</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>79</v>
@@ -22653,7 +22660,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22674,10 +22681,10 @@
         <v>79</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>79</v>
@@ -22688,10 +22695,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22806,10 +22813,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22926,10 +22933,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22955,16 +22962,16 @@
         <v>138</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>79</v>
@@ -23013,7 +23020,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -23034,10 +23041,10 @@
         <v>79</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>79</v>
@@ -23048,10 +23055,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23077,13 +23084,13 @@
         <v>105</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -23133,7 +23140,7 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -23154,10 +23161,10 @@
         <v>79</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>79</v>
@@ -23168,10 +23175,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23197,14 +23204,14 @@
         <v>180</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>79</v>
@@ -23253,7 +23260,7 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23274,10 +23281,10 @@
         <v>79</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>79</v>
@@ -23288,10 +23295,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23317,14 +23324,14 @@
         <v>105</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>79</v>
@@ -23373,7 +23380,7 @@
         <v>79</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23394,10 +23401,10 @@
         <v>79</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>79</v>
@@ -23408,10 +23415,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23434,19 +23441,19 @@
         <v>92</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>79</v>
@@ -23495,7 +23502,7 @@
         <v>79</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23516,10 +23523,10 @@
         <v>79</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>79</v>
@@ -23530,10 +23537,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23559,16 +23566,16 @@
         <v>105</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>79</v>
@@ -23617,7 +23624,7 @@
         <v>79</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23638,10 +23645,10 @@
         <v>79</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>79</v>
@@ -23652,13 +23659,13 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>79</v>
@@ -23683,16 +23690,16 @@
         <v>332</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>79</v>
@@ -23721,7 +23728,7 @@
       </c>
       <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>79</v>
@@ -23739,7 +23746,7 @@
         <v>79</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23754,30 +23761,30 @@
         <v>103</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP170" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23892,10 +23899,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24010,13 +24017,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>79</v>
@@ -24038,13 +24045,13 @@
         <v>79</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -24130,10 +24137,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24248,10 +24255,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24366,10 +24373,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24409,7 +24416,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>79</v>
@@ -24486,10 +24493,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24518,7 +24525,7 @@
         <v>235</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -24530,7 +24537,7 @@
         <v>79</v>
       </c>
       <c r="S177" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="T177" t="s" s="2">
         <v>79</v>
@@ -24549,7 +24556,7 @@
       </c>
       <c r="Y177" s="2"/>
       <c r="Z177" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>79</v>
@@ -24602,10 +24609,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24631,16 +24638,16 @@
         <v>158</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
@@ -24689,7 +24696,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24710,10 +24717,10 @@
         <v>79</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>79</v>
@@ -24724,10 +24731,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24753,16 +24760,16 @@
         <v>105</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -24811,7 +24818,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24832,10 +24839,10 @@
         <v>79</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>79</v>
@@ -24846,13 +24853,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>79</v>
@@ -24877,16 +24884,16 @@
         <v>332</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>79</v>
@@ -24915,7 +24922,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>79</v>
@@ -24933,7 +24940,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24948,30 +24955,30 @@
         <v>103</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP180" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25086,10 +25093,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25204,13 +25211,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>79</v>
@@ -25232,13 +25239,13 @@
         <v>79</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -25324,10 +25331,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25442,10 +25449,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25560,10 +25567,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25603,7 +25610,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>79</v>
@@ -25680,10 +25687,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25712,7 +25719,7 @@
         <v>235</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -25724,7 +25731,7 @@
         <v>79</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>79</v>
@@ -25743,7 +25750,7 @@
       </c>
       <c r="Y187" s="2"/>
       <c r="Z187" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>79</v>
@@ -25796,10 +25803,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25825,16 +25832,16 @@
         <v>158</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>79</v>
@@ -25883,7 +25890,7 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25904,10 +25911,10 @@
         <v>79</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO188" t="s" s="2">
         <v>79</v>
@@ -25918,10 +25925,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25947,16 +25954,16 @@
         <v>105</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>79</v>
@@ -26005,7 +26012,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -26026,10 +26033,10 @@
         <v>79</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>79</v>
@@ -26040,13 +26047,13 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>79</v>
@@ -26071,16 +26078,16 @@
         <v>332</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>79</v>
@@ -26109,7 +26116,7 @@
       </c>
       <c r="Y190" s="2"/>
       <c r="Z190" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>79</v>
@@ -26127,7 +26134,7 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -26145,27 +26152,27 @@
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP190" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26280,10 +26287,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26398,13 +26405,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>79</v>
@@ -26426,13 +26433,13 @@
         <v>79</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -26518,10 +26525,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26636,10 +26643,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26754,10 +26761,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26797,7 +26804,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>79</v>
@@ -26874,10 +26881,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26906,7 +26913,7 @@
         <v>235</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26918,7 +26925,7 @@
         <v>79</v>
       </c>
       <c r="S197" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="T197" t="s" s="2">
         <v>79</v>
@@ -26937,7 +26944,7 @@
       </c>
       <c r="Y197" s="2"/>
       <c r="Z197" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>79</v>
@@ -26990,10 +26997,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27019,16 +27026,16 @@
         <v>158</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
@@ -27077,7 +27084,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -27098,10 +27105,10 @@
         <v>79</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -27112,10 +27119,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27141,16 +27148,16 @@
         <v>105</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -27199,7 +27206,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -27220,10 +27227,10 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -27234,13 +27241,13 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>79</v>
@@ -27265,16 +27272,16 @@
         <v>332</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -27303,7 +27310,7 @@
       </c>
       <c r="Y200" s="2"/>
       <c r="Z200" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>79</v>
@@ -27321,7 +27328,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27339,27 +27346,27 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27474,10 +27481,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27592,13 +27599,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>79</v>
@@ -27620,13 +27627,13 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27712,10 +27719,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27830,10 +27837,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27948,10 +27955,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27991,7 +27998,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>79</v>
@@ -28068,10 +28075,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28100,7 +28107,7 @@
         <v>235</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -28112,7 +28119,7 @@
         <v>79</v>
       </c>
       <c r="S207" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>79</v>
@@ -28131,7 +28138,7 @@
       </c>
       <c r="Y207" s="2"/>
       <c r="Z207" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>79</v>
@@ -28184,10 +28191,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28213,16 +28220,16 @@
         <v>158</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -28271,7 +28278,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -28292,10 +28299,10 @@
         <v>79</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
@@ -28306,10 +28313,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28335,16 +28342,16 @@
         <v>105</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28393,7 +28400,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28414,10 +28421,10 @@
         <v>79</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
@@ -28428,10 +28435,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28457,16 +28464,16 @@
         <v>105</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28515,7 +28522,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28530,19 +28537,19 @@
         <v>103</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AP210" t="s" s="2">
         <v>79</v>
@@ -28550,10 +28557,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28579,16 +28586,16 @@
         <v>105</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -28637,7 +28644,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28652,16 +28659,16 @@
         <v>103</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28672,10 +28679,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28698,19 +28705,19 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28747,7 +28754,7 @@
         <v>79</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AC212" s="2"/>
       <c r="AD212" t="s" s="2">
@@ -28757,7 +28764,7 @@
         <v>118</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28769,22 +28776,22 @@
         <v>212</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>79</v>
@@ -28792,10 +28799,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28910,10 +28917,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29030,13 +29037,13 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>79</v>
@@ -29058,13 +29065,13 @@
         <v>79</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -29150,10 +29157,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29179,10 +29186,10 @@
         <v>180</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29212,10 +29219,10 @@
         <v>326</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -29233,7 +29240,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -29242,7 +29249,7 @@
         <v>91</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>103</v>
@@ -29254,13 +29261,13 @@
         <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AP216" t="s" s="2">
         <v>79</v>
@@ -29268,10 +29275,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29297,16 +29304,16 @@
         <v>105</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29355,7 +29362,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29376,10 +29383,10 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>359</v>
@@ -29390,10 +29397,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29419,16 +29426,16 @@
         <v>180</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29456,10 +29463,10 @@
         <v>326</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>79</v>
@@ -29477,7 +29484,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29498,13 +29505,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29512,10 +29519,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29538,16 +29545,16 @@
         <v>92</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -29597,7 +29604,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29632,10 +29639,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29661,10 +29668,10 @@
         <v>234</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29715,7 +29722,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29739,7 +29746,7 @@
         <v>203</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>366</v>
@@ -29750,13 +29757,13 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>79</v>
@@ -29778,19 +29785,19 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -29839,7 +29846,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29851,22 +29858,22 @@
         <v>212</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP221" t="s" s="2">
         <v>79</v>
@@ -29874,10 +29881,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29992,10 +29999,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -30110,13 +30117,13 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>79</v>
@@ -30138,13 +30145,13 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30230,10 +30237,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30348,10 +30355,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30466,10 +30473,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30509,7 +30516,7 @@
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>79</v>
@@ -30586,10 +30593,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30618,7 +30625,7 @@
         <v>235</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -30630,7 +30637,7 @@
         <v>79</v>
       </c>
       <c r="S228" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>79</v>
@@ -30649,7 +30656,7 @@
       </c>
       <c r="Y228" s="2"/>
       <c r="Z228" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>79</v>
@@ -30702,13 +30709,13 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>79</v>
@@ -30730,13 +30737,13 @@
         <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30822,10 +30829,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30940,10 +30947,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31060,13 +31067,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>79</v>
@@ -31091,7 +31098,7 @@
         <v>112</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>206</v>
@@ -31180,10 +31187,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31298,10 +31305,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31416,10 +31423,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31459,7 +31466,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>79</v>
@@ -31536,10 +31543,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31568,7 +31575,7 @@
         <v>235</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -31599,7 +31606,7 @@
       </c>
       <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>79</v>
@@ -31652,10 +31659,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>214</v>
@@ -31772,10 +31779,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31890,10 +31897,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -32008,10 +32015,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32128,10 +32135,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32160,7 +32167,7 @@
         <v>235</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -32246,13 +32253,13 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>79</v>
@@ -32366,10 +32373,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32484,10 +32491,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32602,10 +32609,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32645,7 +32652,7 @@
       </c>
       <c r="Q245" s="2"/>
       <c r="R245" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="S245" t="s" s="2">
         <v>79</v>
@@ -32722,10 +32729,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32754,7 +32761,7 @@
         <v>235</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -32840,13 +32847,13 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D247" t="s" s="2">
         <v>79</v>
@@ -32960,10 +32967,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33078,10 +33085,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33196,10 +33203,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33239,7 +33246,7 @@
       </c>
       <c r="Q250" s="2"/>
       <c r="R250" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>79</v>
@@ -33316,10 +33323,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -33348,7 +33355,7 @@
         <v>235</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -33434,13 +33441,13 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D252" t="s" s="2">
         <v>79</v>
@@ -33554,10 +33561,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -33672,10 +33679,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -33790,10 +33797,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -33833,7 +33840,7 @@
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="S255" t="s" s="2">
         <v>79</v>
@@ -33910,10 +33917,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -33942,7 +33949,7 @@
         <v>235</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -34028,13 +34035,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>79</v>
@@ -34148,10 +34155,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -34266,10 +34273,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -34384,10 +34391,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -34427,7 +34434,7 @@
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="S260" t="s" s="2">
         <v>79</v>
@@ -34504,10 +34511,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -34530,13 +34537,13 @@
         <v>79</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L261" t="s" s="2">
         <v>235</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -34622,13 +34629,13 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D262" t="s" s="2">
         <v>79</v>
@@ -34742,10 +34749,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -34860,10 +34867,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -34978,10 +34985,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -35021,7 +35028,7 @@
       </c>
       <c r="Q265" s="2"/>
       <c r="R265" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="S265" t="s" s="2">
         <v>79</v>
@@ -35098,10 +35105,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -35124,13 +35131,13 @@
         <v>79</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L266" t="s" s="2">
         <v>235</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
@@ -35216,10 +35223,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -35259,7 +35266,7 @@
       </c>
       <c r="Q267" s="2"/>
       <c r="R267" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="S267" t="s" s="2">
         <v>79</v>
@@ -35336,10 +35343,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -35362,13 +35369,13 @@
         <v>79</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>235</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -35454,10 +35461,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -35483,10 +35490,10 @@
         <v>180</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -35498,7 +35505,7 @@
         <v>79</v>
       </c>
       <c r="S269" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="T269" t="s" s="2">
         <v>79</v>
@@ -35516,10 +35523,10 @@
         <v>326</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AA269" t="s" s="2">
         <v>79</v>
@@ -35537,7 +35544,7 @@
         <v>79</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>80</v>
@@ -35546,7 +35553,7 @@
         <v>91</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>103</v>
@@ -35558,13 +35565,13 @@
         <v>79</v>
       </c>
       <c r="AM269" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AO269" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AP269" t="s" s="2">
         <v>79</v>
@@ -35572,10 +35579,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -35601,16 +35608,16 @@
         <v>105</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O270" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="P270" t="s" s="2">
         <v>79</v>
@@ -35659,7 +35666,7 @@
         <v>79</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>80</v>
@@ -35680,10 +35687,10 @@
         <v>79</v>
       </c>
       <c r="AM270" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AN270" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AO270" t="s" s="2">
         <v>359</v>
@@ -35694,10 +35701,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -35723,16 +35730,16 @@
         <v>180</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>79</v>
@@ -35760,10 +35767,10 @@
         <v>326</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="Z271" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AA271" t="s" s="2">
         <v>79</v>
@@ -35781,7 +35788,7 @@
         <v>79</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>80</v>
@@ -35802,13 +35809,13 @@
         <v>79</v>
       </c>
       <c r="AM271" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AN271" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AO271" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AP271" t="s" s="2">
         <v>79</v>
@@ -35816,10 +35823,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35842,16 +35849,16 @@
         <v>92</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" t="s" s="2">
@@ -35901,7 +35908,7 @@
         <v>79</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>80</v>
@@ -35936,10 +35943,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -35965,10 +35972,10 @@
         <v>234</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -36019,7 +36026,7 @@
         <v>79</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>80</v>
@@ -36043,7 +36050,7 @@
         <v>203</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AO273" t="s" s="2">
         <v>366</v>
@@ -36054,10 +36061,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -36080,19 +36087,19 @@
         <v>79</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="O274" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="P274" t="s" s="2">
         <v>79</v>
@@ -36141,7 +36148,7 @@
         <v>79</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>80</v>
@@ -36153,22 +36160,22 @@
         <v>212</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AM274" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AO274" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AP274" t="s" s="2">
         <v>79</v>
@@ -36176,10 +36183,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -36202,17 +36209,17 @@
         <v>92</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>79</v>
@@ -36261,7 +36268,7 @@
         <v>79</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>80</v>
@@ -36279,13 +36286,13 @@
         <v>79</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AM275" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AO275" t="s" s="2">
         <v>109</v>
@@ -36296,10 +36303,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -36414,10 +36421,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -36534,10 +36541,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -36563,13 +36570,13 @@
         <v>105</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
@@ -36619,7 +36626,7 @@
         <v>79</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>80</v>
@@ -36628,7 +36635,7 @@
         <v>91</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AJ278" t="s" s="2">
         <v>103</v>
@@ -36654,10 +36661,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -36683,13 +36690,13 @@
         <v>138</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -36719,7 +36726,7 @@
       </c>
       <c r="Y279" s="2"/>
       <c r="Z279" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>79</v>
@@ -36737,7 +36744,7 @@
         <v>79</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>80</v>
@@ -36772,10 +36779,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -36801,13 +36808,13 @@
         <v>308</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
@@ -36857,7 +36864,7 @@
         <v>79</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>80</v>
@@ -36881,7 +36888,7 @@
         <v>79</v>
       </c>
       <c r="AN280" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AO280" t="s" s="2">
         <v>79</v>
@@ -36892,10 +36899,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -36921,13 +36928,13 @@
         <v>105</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
@@ -36977,7 +36984,7 @@
         <v>79</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>80</v>
@@ -37012,10 +37019,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -37038,19 +37045,19 @@
         <v>79</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>79</v>
@@ -37099,7 +37106,7 @@
         <v>79</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>80</v>
@@ -37123,7 +37130,7 @@
         <v>79</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AO282" t="s" s="2">
         <v>79</v>
@@ -37134,10 +37141,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -37252,10 +37259,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -37372,14 +37379,14 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -37401,10 +37408,10 @@
         <v>112</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="N285" t="s" s="2">
         <v>115</v>
@@ -37459,7 +37466,7 @@
         <v>79</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>80</v>
@@ -37494,10 +37501,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -37523,14 +37530,14 @@
         <v>332</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>79</v>
@@ -37558,10 +37565,10 @@
         <v>162</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="Z286" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="AA286" t="s" s="2">
         <v>79</v>
@@ -37579,7 +37586,7 @@
         <v>79</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>80</v>
@@ -37603,7 +37610,7 @@
         <v>79</v>
       </c>
       <c r="AN286" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="AO286" t="s" s="2">
         <v>79</v>
@@ -37614,10 +37621,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -37640,17 +37647,17 @@
         <v>79</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>79</v>
@@ -37699,7 +37706,7 @@
         <v>79</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>80</v>
@@ -37720,10 +37727,10 @@
         <v>79</v>
       </c>
       <c r="AM287" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="AO287" t="s" s="2">
         <v>79</v>
@@ -37734,10 +37741,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -37760,17 +37767,17 @@
         <v>79</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>79</v>
@@ -37819,7 +37826,7 @@
         <v>79</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>80</v>
@@ -37831,7 +37838,7 @@
         <v>212</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="AK288" t="s" s="2">
         <v>79</v>
@@ -37840,13 +37847,13 @@
         <v>79</v>
       </c>
       <c r="AM288" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AO288" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP288" t="s" s="2">
         <v>79</v>
@@ -37854,10 +37861,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37880,19 +37887,19 @@
         <v>79</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>79</v>
@@ -37941,7 +37948,7 @@
         <v>79</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>80</v>
@@ -37962,13 +37969,13 @@
         <v>79</v>
       </c>
       <c r="AM289" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AO289" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AP289" t="s" s="2">
         <v>79</v>
@@ -37976,10 +37983,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -38002,17 +38009,17 @@
         <v>79</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>79</v>
@@ -38061,7 +38068,7 @@
         <v>79</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4027,7 +4027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>266</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>271</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>277</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>283</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>290</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>296</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>376</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>534</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>694</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>704</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>850</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>855</v>
       </c>
@@ -36859,7 +36859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>934</v>
       </c>
@@ -36981,12 +36981,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP281">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
